--- a/biology/Botanique/Leucadendron/Leucadendron.xlsx
+++ b/biology/Botanique/Leucadendron/Leucadendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucadendron est un genre de plantes à fleurs de la famille des Proteaceae. Il compte environ 80 espèces endémiques à l'Afrique du Sud où elles constituent une partie essentielle de la végétation du finbos.
 Ce sont des arbustes ou de petits arbres à feuilles persistantes qui poussent de 1 à 16 m de hauteur. Les feuilles sont disposées en spirale, simples, entières, et généralement de couleur verte, souvent recouvertes d'une pruine cireuse, et dans le cas de Leucadendron argenteum, avec un aspect argenté dû aux poils denses et soyeux. Les fleurs sont regroupées en inflorescences denses, elles sont dioïques, c'est-à-dire avec des plantes mâles et femelles distinctes. Le fruit est un cône ligneux, contenant de nombreuses graines, la forme des graines est très variée et permettent de distinguer des sous-genres dans le genre. Quelques-uns comme la L. argenteum ont un parachute de cheveux soyeux, permettant à la graine d'être dispersée par le vent. Quelques-uns sont dispersés par les rongeurs et quelques-uns par les fourmis. Environ la moitié des espèces conservent leurs graines dans des cônes et ne les libèrent qu'après qu'un incendie ait tué la plante. Presque toutes les espèces se renouvelleront ainsi naturellement après les incendies.
@@ -512,7 +524,9 @@
           <t>Espèces sélectionnées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Leucadendron loriense.
